--- a/data/spore counts incomplete data.xlsx
+++ b/data/spore counts incomplete data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifmiller/Documents/GitHub/flax.rust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5018F8-5806-E64C-90C1-7187EE80CF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAAA198-91FE-744C-93F2-7D1920F23BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="4480" windowWidth="27640" windowHeight="15780" xr2:uid="{5B1D0C83-39A0-B840-8D28-BAB1CF5E45B4}"/>
+    <workbookView xWindow="260" yWindow="960" windowWidth="27640" windowHeight="15780" xr2:uid="{5B1D0C83-39A0-B840-8D28-BAB1CF5E45B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>?</t>
   </si>
@@ -64,16 +64,41 @@
   </si>
   <si>
     <t>unknown direction + distance</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Date deployed</t>
+  </si>
+  <si>
+    <t>no within host data recorded on deploy date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37854EFB-BF03-2B43-B5B9-997459A2AFAB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,97 +459,400 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44153</v>
       </c>
       <c r="B2">
         <v>262</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>44027</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>80</v>
+      <c r="F2" t="s">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B5" s="3">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B7" s="3">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B10" s="3">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B11" s="3">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B12" s="3">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B14" s="3">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44018</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/spore counts incomplete data.xlsx
+++ b/data/spore counts incomplete data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifmiller/Documents/GitHub/flax.rust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAAA198-91FE-744C-93F2-7D1920F23BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92F55E-1F3D-A140-933A-F42C401B40B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="27640" windowHeight="15780" xr2:uid="{5B1D0C83-39A0-B840-8D28-BAB1CF5E45B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>?</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>no within host data recorded on deploy date</t>
+  </si>
+  <si>
+    <t>9/29/20020</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37854EFB-BF03-2B43-B5B9-997459A2AFAB}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,6 +857,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/spore counts incomplete data.xlsx
+++ b/data/spore counts incomplete data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifmiller/Documents/GitHub/flax.rust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92F55E-1F3D-A140-933A-F42C401B40B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C713DAB-9F58-324E-9176-98093693654A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="27640" windowHeight="15780" xr2:uid="{5B1D0C83-39A0-B840-8D28-BAB1CF5E45B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
   <si>
     <t>?</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>9/29/20020</t>
+  </si>
+  <si>
+    <t>typo in tag</t>
+  </si>
+  <si>
+    <t>mislabeled tag</t>
   </si>
 </sst>
 </file>
@@ -127,10 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37854EFB-BF03-2B43-B5B9-997459A2AFAB}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,380 +515,1163 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B4">
         <v>36</v>
       </c>
-      <c r="C3" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C4" s="1">
         <v>44025</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B5">
         <v>36</v>
       </c>
-      <c r="C4" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C5" s="1">
         <v>44025</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>80</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B6">
         <v>36</v>
       </c>
-      <c r="C5" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C6" s="1">
         <v>44025</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>80</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44025</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B12">
+        <v>181</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B14">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B15">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44020</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B16">
+        <v>262</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B17">
+        <v>262</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B18">
+        <v>262</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B19">
+        <v>262</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B20">
+        <v>262</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B21">
+        <v>554</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B22">
+        <v>948</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B23">
+        <v>948</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B24">
+        <v>948</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B25">
+        <v>948</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>80</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B26">
+        <v>948</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B27">
+        <v>948</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B28">
+        <v>948</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B29">
+        <v>948</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B30">
+        <v>948</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B31">
+        <v>948</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>80</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B32">
+        <v>948</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B33">
+        <v>948</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B34">
+        <v>948</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B35">
+        <v>948</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>80</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B36">
+        <v>948</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B6" s="3">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B37">
+        <v>948</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B38">
+        <v>948</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B39">
+        <v>948</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>80</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B40">
+        <v>948</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>80</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B41">
+        <v>948</v>
+      </c>
+      <c r="C41" s="1">
         <v>44025</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D41" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>80</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B7" s="3">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F41">
         <v>25</v>
       </c>
-      <c r="G7" s="3">
-        <v>80</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B8" s="3">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G41">
+        <v>80</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B42">
+        <v>949</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44019</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B9" s="3">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B10" s="3">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>80</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B11" s="3">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3">
-        <v>80</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B12" s="3">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3">
-        <v>80</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B13" s="3">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3">
-        <v>80</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B14" s="3">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44018</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44025</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3">
-        <v>50</v>
-      </c>
-      <c r="G14" s="3">
-        <v>80</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44025</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44032</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>15</v>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/spore counts incomplete data.xlsx
+++ b/data/spore counts incomplete data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ifmiller/Documents/GitHub/flax.rust/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C713DAB-9F58-324E-9176-98093693654A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B42D90-E446-B743-8757-1BB394DE0DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="27640" windowHeight="15780" xr2:uid="{5B1D0C83-39A0-B840-8D28-BAB1CF5E45B4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>?</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>mislabeled tag</t>
   </si>
+  <si>
+    <t>mislabeled direction</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
 </sst>
 </file>
 
@@ -133,10 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37854EFB-BF03-2B43-B5B9-997459A2AFAB}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44153</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44153</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44153</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44153</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44153</v>
       </c>
@@ -1529,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44153</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44153</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44153</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44152</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44153</v>
       </c>
@@ -1672,6 +1680,435 @@
       </c>
       <c r="I42" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B43" s="4">
+        <v>995</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D43" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4">
+        <v>80</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="4">
+        <f>(H43/G43)^2</f>
+        <v>1.5625000000000003E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B44" s="4">
+        <v>995</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D44" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4">
+        <v>80</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" ref="K44:K55" si="0">(H44/G44)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B45" s="4">
+        <v>995</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>80</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5625000000000003E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B46" s="4">
+        <v>995</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D46" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>80</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44096</v>
+      </c>
+      <c r="B47" s="4">
+        <v>945</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44018</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44025</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4">
+        <v>25</v>
+      </c>
+      <c r="G47" s="4">
+        <v>40</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B48" s="4">
+        <v>302</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44019</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44027</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4">
+        <v>80</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B49" s="4">
+        <v>249</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44033</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4">
+        <v>50</v>
+      </c>
+      <c r="G49" s="4">
+        <v>80</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B50" s="4">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D50" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>40</v>
+      </c>
+      <c r="H50" s="4">
+        <v>526</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="4">
+        <f>(H50/G50)^2</f>
+        <v>172.92250000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B51" s="4">
+        <v>201</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D51" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>20</v>
+      </c>
+      <c r="H51" s="4">
+        <v>508</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="4">
+        <f>(H51/G51)^2</f>
+        <v>645.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>44110</v>
+      </c>
+      <c r="B52" s="4">
+        <v>88</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D52" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>80</v>
+      </c>
+      <c r="H52" s="4">
+        <v>299</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="0"/>
+        <v>13.968906249999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>44110</v>
+      </c>
+      <c r="B53" s="4">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D53" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>80</v>
+      </c>
+      <c r="H53" s="4">
+        <v>374</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="0"/>
+        <v>21.855625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>44110</v>
+      </c>
+      <c r="B54" s="4">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="4">
+        <v>50</v>
+      </c>
+      <c r="G54" s="4">
+        <v>80</v>
+      </c>
+      <c r="H54" s="4">
+        <v>27</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11390625000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>44110</v>
+      </c>
+      <c r="B55" s="4">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44028</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44034</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4">
+        <v>50</v>
+      </c>
+      <c r="G55" s="4">
+        <v>80</v>
+      </c>
+      <c r="H55" s="4">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
   </sheetData>
